--- a/Notebooks_Dia3/tweets.xlsx
+++ b/Notebooks_Dia3/tweets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="198">
   <si>
     <t>id</t>
   </si>
@@ -49,479 +49,583 @@
     <t>en</t>
   </si>
   <si>
-    <t>RT @patri_vaquero_: 🔬 Colab Pro: Is it Worth the Money? #BigData #Analytics #DataScience #AI #MachineLearning #IoT #PyTorch #Python #RStats…</t>
-  </si>
-  <si>
-    <t>RT @patri_vaquero_: 🔬 Awesome Cheat Sheets for Popular #Programming Languages.. #BigData #Analytics #DataScience #CPP #IoT #IIoT #PyTorch #…</t>
-  </si>
-  <si>
-    <t>RT @gp_pulipaka: Autopredict Coding Tools. #BigData #Analytics #DataScience #AI #MachineLearning #IoT #IIoT #PyTorch #Python #RStats #Tenso…</t>
-  </si>
-  <si>
-    <t>RT @dayus4heaven: Python Essential Cheat Sheet for your use.
-#WebDev #BigData #Analytics #DataScience #CyberSecurity #IoT #IIoT #PyTorch #P…</t>
-  </si>
-  <si>
-    <t>🔬 Colab Pro: Is it Worth the Money? #BigData #Analytics #DataScience #AI #MachineLearning #IoT #PyTorch #Python… https://t.co/cPuYlemoXk</t>
-  </si>
-  <si>
-    <t>RT @PinakiLaskar: #Programmer directory!
-#AI #Analytics #DataScience #rstats #IoT #TensorFlow #javascript #reactjs #Cloud #Serverless #Nod…</t>
-  </si>
-  <si>
-    <t>RT @dayus4heaven: HTML4  Cheat Sheet for your use.
-#WebDev #BigData #Analytics #DataScience #CyberSecurity #IoT #IIoT #PyTorch #Python #RSt…</t>
-  </si>
-  <si>
-    <t>RT @dayus4heaven: Ember.js Cheat Sheet for your use.
-#WebDev #BigData #Analytics #DataScience #CyberSecurity #IoT #IIoT #PyTorch #Python #R…</t>
-  </si>
-  <si>
-    <t>RT @FARHAN_RABBANI: Keyboard shortcuts 
-#Robots #Robotics #AI #BigData #Analytics #DataScience #rstats #IoT #TensorFlow #javascript #react…</t>
-  </si>
-  <si>
-    <t>RT @KirkDBorne: Comparison of #DeepLearning Frameworks — #PyTorch vs. #TensorFlow: https://t.co/D0WmDr5YOK by @meheller  
-—————
-#BigData #D…</t>
-  </si>
-  <si>
-    <t>RT @patri_vaquero_: 🔬 Hands-On-Neural-Networks-with #TensorFlow-2.0. #BigData #Analytics #DataScience #AI #MachineLearning #IoT #IIoT #PyTo…</t>
-  </si>
-  <si>
-    <t>RT @Suraphel_Diriba: Learn JavaScript in simple way
-subscribe
-https://t.co/AqxK6qra48
-#WebDev #BigData #Analytics
-#DataScience #CyberSecuri…</t>
-  </si>
-  <si>
-    <t>Learn JavaScript in simple way
-subscribe
-https://t.co/AqxK6qra48
-#WebDev #BigData #Analytics
-#DataScience… https://t.co/jEKdtSxdqV</t>
-  </si>
-  <si>
-    <t>RT @dom_beaini: 1/2 Me and my colleague @jd_horwood will be presenting some of the #MachineLearning #research done at @invivo_ai and @MILAM…</t>
-  </si>
-  <si>
-    <t>RT @aeromobix: Automateddriving  #india
-#Security!
-#Memes #math #science #engineering #cybersecurity #artificialintelligence #technology #m…</t>
-  </si>
-  <si>
-    <t>RT @gp_pulipaka: Top Ten Cybersecurity Books. #BigData #Analytics #DataScience #CyberSecurity #IoT #IIoT #PyTorch #Python #RStats #TensorFl…</t>
-  </si>
-  <si>
-    <t>RT @gp_pulipaka: 18 Best PyTorch Books of All Time. #BigData #Analytics #DataScience #IoT #IIoT #PyTorch #Python #RStats #TensorFlow #Java…</t>
-  </si>
-  <si>
-    <t>RT @PinakiLaskar: The Boy is a,
-1. Programmer
-2. Engineer
-3. Coder
-What is your opinion.
-#Robotics #machinelearning #Python #Java #Javascr…</t>
-  </si>
-  <si>
-    <t>RT @dayus4heaven: Build a simple Neural Network in 9 lines of #Python #code
-https://t.co/9is51fHFvR
-#WebDev #BigData #Analytics #DataScienc…</t>
-  </si>
-  <si>
-    <t>RT @Deep_In_Depth: How to Build a Successful Data Science Workflow https://t.co/9Awh7P4QDN #DL #AI #ML #DeepLearning #NeuralNetworks  #Arti…</t>
+    <t>RT @dayus4heaven: Essential Cheat Sheets for MachineLearning&amp;amp;DeepLearning
+#WebDev #BigData #Analytics #DataScience #CyberSecurity #IoT #IIo…</t>
+  </si>
+  <si>
+    <t>RT @odsc: Announcing AI+ Training by #ODSC. Learn from acclaimed instructor and author Jon Krohn, PhD, this July. Register now to save 30%:…</t>
+  </si>
+  <si>
+    <t>RT @EmmanuelTorty: VS Code Cheat Sheet (2020)
+#WebDev #BigData #Analytics #DataScience #CyberSecurity #IoT #IIoT #PyTorch #Python #RStats #…</t>
+  </si>
+  <si>
+    <t>RT @pak_aims: #Programmer directory!
+#AI #Analytics #DataScience #rstats #IoT #TensorFlow #javascript #reactjs #Cloud #Serverless #NodeJS…</t>
+  </si>
+  <si>
+    <t>RT @FARHAN_RABBANI: Programming Dictionary!
+#Robots #Robotics #AI #BigData #Analytics #DataScience #rstats #IoT #TensorFlow #javascript #r…</t>
   </si>
   <si>
     <t>RT @PratikNilange: Me explaining client how to use the program!🤣
 #WebDev #BigData #Analytics #DataScience #CyberSecurity #IoT #IIoT #PyTorc…</t>
   </si>
   <si>
-    <t>RT @sjmielke: You've seen JAX differentiate numpy one-liners, and it looked cool, but... how does one build actual neural net models like w…</t>
-  </si>
-  <si>
-    <t>RT @keunwoochoi: It seems clear to me that Tensorflow developers are not deeply understanding why researchers struggle with their product.…</t>
-  </si>
-  <si>
-    <t>_awesomecoder</t>
-  </si>
-  <si>
-    <t>CloudCoopItaly</t>
-  </si>
-  <si>
-    <t>ndroid_techk</t>
+    <t>Announcing AI+ Training by #ODSC. Learn from acclaimed instructor and author Jon Krohn, PhD, this July. Register no… https://t.co/lwo9fqwbK8</t>
+  </si>
+  <si>
+    <t>RT @tut_ml: Best Books on Data Science in 2020
+#WebDev #BigData #Analytics #DataScience #CyberSecurity #IoT #IIoT #PyTorch #Python #RStats…</t>
+  </si>
+  <si>
+    <t>RT @y2yuuuki: For DataScientists
+https://t.co/c5dzcBeyMi
+ーーー
+#WebDev #BigData #Analytics #DataScience #CyberSecurity #IoT #IIoT #PyTorch #…</t>
+  </si>
+  <si>
+    <t>RT @Deep_In_Depth: Awesome Julia Machine-Learning Packages Everyone Should Try! https://t.co/XWdemKy8us #DL #AI #ML #DeepLearning #NeuralNe…</t>
+  </si>
+  <si>
+    <t>RT @kwasi_arhin_: @venikunche @DiversifyTechCo Hey #TechTwitter, My name is Kwasi Arhin
+I'm currently seeking Data Scientist/Machine Learn…</t>
+  </si>
+  <si>
+    <t>RT @PinakiLaskar: Best #Selfies
+#STEM #Memes #math #science #engineering #cybersecurity #artificialintelligence #technology #machinelearnin…</t>
+  </si>
+  <si>
+    <t>RT @patri_vaquero_: 🔬 #Azure #MachineLearning- Model Training. #BigData #Analytics #DataScience #AI  #IoT #IIoT #PyTorch #Python #RStats #T…</t>
+  </si>
+  <si>
+    <t>RT @ekecoding: VS Code Cheat Sheet (2020)
+#WebDev #BigData #Analytics #DataScience #CyberSecurity #IoT #IIoT #PyTorch #Python #RStats #Tens…</t>
+  </si>
+  <si>
+    <t>Uhhn, for GANs, PyTorch seems ve suitable compared to TensorFlow... (especially, GD part)
+How Pytorch has made GAN… https://t.co/2Nbzn1lKmS</t>
+  </si>
+  <si>
+    <t>VS Code Cheat Sheet (2020)
+#WebDev #BigData #Analytics #DataScience #CyberSecurity #IoT #IIoT #PyTorch #Python… https://t.co/shNLBTrBEG</t>
+  </si>
+  <si>
+    <t>RT @AI212news: OpenAI GPT-3 with 175 billion parameters  . Language Models are Few-Shot Learners
+https://t.co/caP7MGyO6u
+#GPT3 #Tensorflow…</t>
+  </si>
+  <si>
+    <t>RT @wil_bielert: RT @dayus4heaven: Essential Cheat Sheets for MachineLearning&amp;amp;DeepLearning
+#WebDev #BigData #Analytics #DataScience #CyberS…</t>
+  </si>
+  <si>
+    <t>@tunguz I was surprised how painless pytorch is to install compared to tensorflow</t>
+  </si>
+  <si>
+    <t>RT @dayus4heaven: Python Flask  Cheat Sheet for your use.
+#WebDev #BigData #Analytics #DataScience #CyberSecurity #IoT #IIoT #PyTorch #Pyth…</t>
+  </si>
+  <si>
+    <t>RT @tut_ml: Top 5 robust Machine Learning Algorithms #WebDev #BigData #Analytics #DataScience #CyberSecurity #IoT #IIoT #PyTorch #Python #R…</t>
+  </si>
+  <si>
+    <t>NodeBotJs2</t>
+  </si>
+  <si>
+    <t>okemname</t>
+  </si>
+  <si>
+    <t>ShyBOT7</t>
+  </si>
+  <si>
+    <t>tobi_aiyelokun</t>
+  </si>
+  <si>
+    <t>_reactdev</t>
+  </si>
+  <si>
+    <t>jamilouazzani</t>
+  </si>
+  <si>
+    <t>C0mment_Reader</t>
+  </si>
+  <si>
+    <t>ddcombot</t>
   </si>
   <si>
     <t>LlnuxBot</t>
   </si>
   <si>
+    <t>ProjectLearn_io</t>
+  </si>
+  <si>
+    <t>Wrdlbrmpfd_Wrdl</t>
+  </si>
+  <si>
+    <t>ManushaDilan</t>
+  </si>
+  <si>
+    <t>herhtom</t>
+  </si>
+  <si>
+    <t>Woodywood4Woody</t>
+  </si>
+  <si>
+    <t>merit_bakare</t>
+  </si>
+  <si>
+    <t>odsc</t>
+  </si>
+  <si>
+    <t>cybersec_feeds</t>
+  </si>
+  <si>
+    <t>MariaLasNieves2</t>
+  </si>
+  <si>
+    <t>CodeGnuts</t>
+  </si>
+  <si>
+    <t>PandhareSidhesh</t>
+  </si>
+  <si>
+    <t>m_khairahman</t>
+  </si>
+  <si>
+    <t>jonico22</t>
+  </si>
+  <si>
+    <t>LabOfBro</t>
+  </si>
+  <si>
+    <t>cybe_rpunkfixer</t>
+  </si>
+  <si>
+    <t>Taieb_Bot</t>
+  </si>
+  <si>
+    <t>ML_Tweet_Bot</t>
+  </si>
+  <si>
+    <t>LearnWithHarry</t>
+  </si>
+  <si>
+    <t>Akrati69904291</t>
+  </si>
+  <si>
+    <t>codedailybot</t>
+  </si>
+  <si>
+    <t>dahlbys</t>
+  </si>
+  <si>
+    <t>FredericRoland7</t>
+  </si>
+  <si>
+    <t>Dev_Luismi</t>
+  </si>
+  <si>
+    <t>KingdomPython</t>
+  </si>
+  <si>
+    <t>AdamMico1</t>
+  </si>
+  <si>
+    <t>BlkHwk0ps</t>
+  </si>
+  <si>
+    <t>ThatGoodTweet</t>
+  </si>
+  <si>
+    <t>venikunche</t>
+  </si>
+  <si>
+    <t>FishEyeBoxIndia</t>
+  </si>
+  <si>
+    <t>tokhope</t>
+  </si>
+  <si>
+    <t>Motion84</t>
+  </si>
+  <si>
+    <t>qualystat</t>
+  </si>
+  <si>
+    <t>Kohei_Dozono</t>
+  </si>
+  <si>
+    <t>FisheyeboxLab</t>
+  </si>
+  <si>
+    <t>ph055a</t>
+  </si>
+  <si>
+    <t>fullNam35087976</t>
+  </si>
+  <si>
+    <t>LinuxDreams</t>
+  </si>
+  <si>
+    <t>AaronCuddeback</t>
+  </si>
+  <si>
+    <t>learn__together</t>
+  </si>
+  <si>
+    <t>JSNewsBot</t>
+  </si>
+  <si>
+    <t>TheDeveloperBot</t>
+  </si>
+  <si>
+    <t>ServerlessFan</t>
+  </si>
+  <si>
+    <t>CyberSecurityN8</t>
+  </si>
+  <si>
+    <t>sectest9</t>
+  </si>
+  <si>
     <t>nlognbot</t>
   </si>
   <si>
+    <t>ekecoding</t>
+  </si>
+  <si>
+    <t>itsOdhiambo_</t>
+  </si>
+  <si>
+    <t>cephalopodluke2</t>
+  </si>
+  <si>
+    <t>coding64</t>
+  </si>
+  <si>
+    <t>saleemrash1d</t>
+  </si>
+  <si>
+    <t>redianbot</t>
+  </si>
+  <si>
     <t>xaelbot</t>
   </si>
   <si>
-    <t>theInfernobot</t>
-  </si>
-  <si>
-    <t>Taieb_Bot</t>
-  </si>
-  <si>
-    <t>redianbot</t>
-  </si>
-  <si>
-    <t>iotworlds</t>
-  </si>
-  <si>
-    <t>andrewmorrisuk</t>
-  </si>
-  <si>
-    <t>CursedWaste</t>
-  </si>
-  <si>
-    <t>ShyBOT7</t>
-  </si>
-  <si>
-    <t>v_braun</t>
-  </si>
-  <si>
-    <t>Bomoimajid</t>
-  </si>
-  <si>
-    <t>chidambara09</t>
-  </si>
-  <si>
-    <t>JSNewsBot</t>
-  </si>
-  <si>
-    <t>codedailybot</t>
-  </si>
-  <si>
-    <t>ServerlessFan</t>
-  </si>
-  <si>
-    <t>patri_vaquero_</t>
-  </si>
-  <si>
-    <t>a1akhai</t>
-  </si>
-  <si>
-    <t>CoDailychalleng</t>
-  </si>
-  <si>
-    <t>pacehrb</t>
-  </si>
-  <si>
-    <t>sysadmins</t>
-  </si>
-  <si>
-    <t>CoderNotesBot</t>
-  </si>
-  <si>
-    <t>_reactdev</t>
-  </si>
-  <si>
-    <t>AaronCuddeback</t>
-  </si>
-  <si>
-    <t>LinuxDreams</t>
-  </si>
-  <si>
-    <t>i_use_linux</t>
-  </si>
-  <si>
-    <t>NVSData</t>
-  </si>
-  <si>
-    <t>silentvoice976</t>
-  </si>
-  <si>
-    <t>_100DaysOfCode</t>
-  </si>
-  <si>
-    <t>Suraphel_Diriba</t>
-  </si>
-  <si>
-    <t>dom_beaini</t>
-  </si>
-  <si>
-    <t>BlakenickPython</t>
-  </si>
-  <si>
-    <t>aeromobix</t>
-  </si>
-  <si>
-    <t>LearnWithHarry</t>
-  </si>
-  <si>
-    <t>femtech_</t>
-  </si>
-  <si>
-    <t>epuujee</t>
-  </si>
-  <si>
-    <t>DanWils42696605</t>
-  </si>
-  <si>
-    <t>thomashilbig2</t>
-  </si>
-  <si>
-    <t>WebSecurityIT</t>
-  </si>
-  <si>
-    <t>sumargoraymond</t>
-  </si>
-  <si>
-    <t>yellowstonemike</t>
-  </si>
-  <si>
-    <t>dllarad</t>
-  </si>
-  <si>
-    <t>PiotrZelasko</t>
-  </si>
-  <si>
-    <t>4sim</t>
-  </si>
-  <si>
-    <t>Awesome Coder</t>
-  </si>
-  <si>
-    <t>CloudCoop ☁️</t>
-  </si>
-  <si>
-    <t>Ndroid Technology</t>
+    <t>BademciSevim</t>
+  </si>
+  <si>
+    <t>ATHARVBHAT</t>
+  </si>
+  <si>
+    <t>rickovir</t>
+  </si>
+  <si>
+    <t>athigah</t>
+  </si>
+  <si>
+    <t>pralhadnasane10</t>
+  </si>
+  <si>
+    <t>YogeshBang</t>
+  </si>
+  <si>
+    <t>NodeBotJs</t>
+  </si>
+  <si>
+    <t>مہک ایمان خان</t>
+  </si>
+  <si>
+    <t>Shy BOT</t>
+  </si>
+  <si>
+    <t>Oluwatobi</t>
+  </si>
+  <si>
+    <t>React Developer</t>
+  </si>
+  <si>
+    <t>Jamil Ouazzani</t>
+  </si>
+  <si>
+    <t>Official_Comment_Reader™️</t>
+  </si>
+  <si>
+    <t>DevelopersDiscussion.com</t>
   </si>
   <si>
     <t>LinuxBot</t>
   </si>
   <si>
+    <t>ProjectLearn</t>
+  </si>
+  <si>
+    <t>Thomas Cave</t>
+  </si>
+  <si>
+    <t>Manusha Dilan</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>meritvision.</t>
+  </si>
+  <si>
+    <t>Open Data Science</t>
+  </si>
+  <si>
+    <t>Cyber Security Feed</t>
+  </si>
+  <si>
+    <t>Maria Las Nieves</t>
+  </si>
+  <si>
+    <t>Gnuts about Code</t>
+  </si>
+  <si>
+    <t>Sidheshwar Pandhare</t>
+  </si>
+  <si>
+    <t>Khai Rahman</t>
+  </si>
+  <si>
+    <t>jose luis yana</t>
+  </si>
+  <si>
+    <t>broslab</t>
+  </si>
+  <si>
+    <t>cyberpunk_fixer</t>
+  </si>
+  <si>
+    <t>JSBot</t>
+  </si>
+  <si>
+    <t>Machine Learning Bot</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>akrati</t>
+  </si>
+  <si>
+    <t>#100daysOfCode</t>
+  </si>
+  <si>
+    <t>Samantha Dahlby</t>
+  </si>
+  <si>
+    <t>Frederic Roland</t>
+  </si>
+  <si>
+    <t>Luis ☢</t>
+  </si>
+  <si>
+    <t>The Python Kingdom</t>
+  </si>
+  <si>
+    <t>Adam Mico</t>
+  </si>
+  <si>
+    <t>Coding for a better world. ¿Need help?</t>
+  </si>
+  <si>
+    <t>What’s a King🤴🏾 without his Crown 🙇🏾‍♂️</t>
+  </si>
+  <si>
+    <t>Veni Kunche</t>
+  </si>
+  <si>
+    <t>AI for Everyone</t>
+  </si>
+  <si>
+    <t>Nadya Tokareva</t>
+  </si>
+  <si>
+    <t>M. Tausha N.</t>
+  </si>
+  <si>
+    <t>uh-oh</t>
+  </si>
+  <si>
+    <t>Kohei Dozono🇲🇾🇯🇵</t>
+  </si>
+  <si>
+    <t>AI for Learning .ۗۗۗۗۗۗۗۗۗۗۗۗۗۗۗۗۗۗۗۗۗۗۗۗۗ</t>
+  </si>
+  <si>
+    <t>akasatanahama.com</t>
+  </si>
+  <si>
+    <t>Aaron Cuddeback</t>
+  </si>
+  <si>
+    <t>Let's learn together 🤖</t>
+  </si>
+  <si>
+    <t>JS News</t>
+  </si>
+  <si>
+    <t>The Developer Bot</t>
+  </si>
+  <si>
+    <t>Serverless Fan</t>
+  </si>
+  <si>
+    <t>Cyber Security News</t>
+  </si>
+  <si>
+    <t>Security Testing</t>
+  </si>
+  <si>
+    <t>Emmanuel Nwolisa</t>
+  </si>
+  <si>
+    <t>Daniel?!!</t>
+  </si>
+  <si>
+    <t>cephalopodlukebot</t>
+  </si>
+  <si>
+    <t>Coding64</t>
+  </si>
+  <si>
+    <t>Saleem Rashid</t>
+  </si>
+  <si>
+    <t>Ready Dev</t>
+  </si>
+  <si>
     <t>xael bot</t>
   </si>
   <si>
-    <t>Inferno</t>
-  </si>
-  <si>
-    <t>JSBot</t>
-  </si>
-  <si>
-    <t>Ready Dev</t>
-  </si>
-  <si>
-    <t>IoT Worlds</t>
-  </si>
-  <si>
-    <t>Andrew Morris</t>
-  </si>
-  <si>
-    <t>cursed outcast waste</t>
-  </si>
-  <si>
-    <t>Shy BOT</t>
-  </si>
-  <si>
-    <t>Viktor Braun</t>
-  </si>
-  <si>
-    <t>Bomoi Abdulmajid</t>
-  </si>
-  <si>
-    <t>Chidambara .ML.</t>
-  </si>
-  <si>
-    <t>JS News</t>
-  </si>
-  <si>
-    <t>#100daysOfCode</t>
-  </si>
-  <si>
-    <t>Serverless Fan</t>
-  </si>
-  <si>
-    <t># Patricia #</t>
-  </si>
-  <si>
-    <t>Andrea Castelli</t>
-  </si>
-  <si>
-    <t>Coding DailyChallenge</t>
-  </si>
-  <si>
-    <t>Hanmant Bongane</t>
-  </si>
-  <si>
-    <t>SysAdmins Tutorials</t>
-  </si>
-  <si>
-    <t>CodersNotes</t>
-  </si>
-  <si>
-    <t>React Developer</t>
-  </si>
-  <si>
-    <t>Aaron Cuddeback</t>
-  </si>
-  <si>
-    <t>Linux_is_Love</t>
-  </si>
-  <si>
-    <t>Mr Data Scientist</t>
-  </si>
-  <si>
-    <t>Akarsh</t>
-  </si>
-  <si>
-    <t>100daysofCode</t>
-  </si>
-  <si>
-    <t>Suraphel Diriba</t>
-  </si>
-  <si>
-    <t>Dominique Beaini</t>
-  </si>
-  <si>
-    <t>blakenick.python</t>
-  </si>
-  <si>
-    <t>Aeromobix Systems Pvt ltd</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>FemTech_🖥👩🏽‍💻</t>
-  </si>
-  <si>
-    <t>Purevdorj Enkhjargal</t>
-  </si>
-  <si>
-    <t>Dan Wilson</t>
-  </si>
-  <si>
-    <t>Thomas Hilbig 2.0</t>
-  </si>
-  <si>
-    <t>Remona</t>
-  </si>
-  <si>
-    <t>Michael P Adams</t>
-  </si>
-  <si>
-    <t>David Lara</t>
-  </si>
-  <si>
-    <t>Piotr Żelasko</t>
-  </si>
-  <si>
-    <t>asim kadav</t>
-  </si>
-  <si>
-    <t>https://dephraiim.github.io</t>
-  </si>
-  <si>
-    <t>http://www.cloudcoop.it</t>
-  </si>
-  <si>
-    <t>http://ndroid.online</t>
+    <t>Sevim Bademci</t>
+  </si>
+  <si>
+    <t>Atharv Bhat</t>
+  </si>
+  <si>
+    <t>Ricko Virnanda</t>
+  </si>
+  <si>
+    <t>Patrick Githiga</t>
+  </si>
+  <si>
+    <t>Pralhad Nasane</t>
+  </si>
+  <si>
+    <t>🎤Yogesh Bang🎸</t>
+  </si>
+  <si>
+    <t>https://www.pointsofcontact.org</t>
+  </si>
+  <si>
+    <t>http://twitter.com/download/iphone</t>
+  </si>
+  <si>
+    <t>https://digitalinspiration.com</t>
+  </si>
+  <si>
+    <t>http://twitter.com/download/android</t>
+  </si>
+  <si>
+    <t>https://rishabhmishra.me/</t>
   </si>
   <si>
     <t>https://techdox.nz</t>
   </si>
   <si>
+    <t>https://projectlearn.io</t>
+  </si>
+  <si>
+    <t>https://mobile.twitter.com</t>
+  </si>
+  <si>
+    <t>http://www.hubspot.com/</t>
+  </si>
+  <si>
+    <t>https://abdirahiimyassin.weebly.com</t>
+  </si>
+  <si>
+    <t>https://adam-spice.online</t>
+  </si>
+  <si>
+    <t>http://twinybots.com</t>
+  </si>
+  <si>
+    <t>https://github.com/AlFalahTaieb</t>
+  </si>
+  <si>
+    <t>https://twitter.com/</t>
+  </si>
+  <si>
+    <t>https://notarealwebsite.nope</t>
+  </si>
+  <si>
+    <t>https://www.abc.com</t>
+  </si>
+  <si>
+    <t>https://twitter.com/codedailybot</t>
+  </si>
+  <si>
+    <t>http://www.samruston.co.uk</t>
+  </si>
+  <si>
+    <t>https://twitter.com/KingdomPython</t>
+  </si>
+  <si>
+    <t>http://yoelijoserfeliz.com.mx</t>
+  </si>
+  <si>
+    <t>http://www.korzenowski.com</t>
+  </si>
+  <si>
+    <t>https://akasatanahama.com/</t>
+  </si>
+  <si>
+    <t>https://avcourt.github.io/tiny-cluster</t>
+  </si>
+  <si>
+    <t>http://aaroncuddeback.com</t>
+  </si>
+  <si>
+    <t>https://twitter.com/learn__together</t>
+  </si>
+  <si>
+    <t>https://jsnewsbot.herokuapp.com</t>
+  </si>
+  <si>
+    <t>https://dreamsofimran.in</t>
+  </si>
+  <si>
+    <t>http://localhost.com</t>
+  </si>
+  <si>
+    <t>https://homeinc.com</t>
+  </si>
+  <si>
+    <t>https://ho.com</t>
+  </si>
+  <si>
     <t>https://nlogn.in</t>
   </si>
   <si>
+    <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>https://go-shopal.herokuapp.com</t>
+  </si>
+  <si>
     <t>https://yathinbabu.github.io</t>
   </si>
   <si>
-    <t>https://google.com</t>
-  </si>
-  <si>
-    <t>https://github.com/AlFalahTaieb</t>
-  </si>
-  <si>
-    <t>https://go-shopal.herokuapp.com</t>
-  </si>
-  <si>
-    <t>https://mobile.twitter.com</t>
-  </si>
-  <si>
-    <t>http://andrewmmorris.com/</t>
-  </si>
-  <si>
-    <t>http://twitter.com/download/android</t>
-  </si>
-  <si>
-    <t>https://digitalinspiration.com</t>
-  </si>
-  <si>
-    <t>https://viktor-braun.de/</t>
-  </si>
-  <si>
-    <t>https://jsnewsbot.herokuapp.com</t>
-  </si>
-  <si>
-    <t>https://twitter.com/codedailybot</t>
-  </si>
-  <si>
-    <t>http://localhost.com</t>
-  </si>
-  <si>
-    <t>http://itunes.apple.com/us/app/twitter/id409789998?mt=12</t>
-  </si>
-  <si>
-    <t>https://donow.in</t>
-  </si>
-  <si>
-    <t>http://twitter.com/download/iphone</t>
-  </si>
-  <si>
-    <t>https://sysadmins.co.za/?utm_source=twitter&amp;utm_medium=bot&amp;utm_campaign=sysadmins_twitter_bot</t>
-  </si>
-  <si>
-    <t>https://100daysofcode.com</t>
-  </si>
-  <si>
-    <t>https://rishabhmishra.me/</t>
-  </si>
-  <si>
-    <t>http://aaroncuddeback.com</t>
-  </si>
-  <si>
-    <t>https://avcourt.github.io/tiny-cluster</t>
-  </si>
-  <si>
-    <t>https://gr-twitterbot.net</t>
-  </si>
-  <si>
-    <t>https://twitter.com/NVSData</t>
-  </si>
-  <si>
-    <t>https://www.akarshvs.xyz</t>
-  </si>
-  <si>
-    <t>http://www.freecodecamo.com</t>
-  </si>
-  <si>
-    <t>https://www.freecodecamp.org/blake.nickens</t>
-  </si>
-  <si>
-    <t>https://notarealwebsite.nope</t>
-  </si>
-  <si>
-    <t>https://rike.dev</t>
-  </si>
-  <si>
-    <t>https://twitter.com/epuujee</t>
-  </si>
-  <si>
-    <t>https://about.twitter.com/products/tweetdeck</t>
-  </si>
-  <si>
-    <t>https://www.thomashilbig.com/</t>
-  </si>
-  <si>
-    <t>https://yourxss.pro/</t>
+    <t>https://pralhadnasane1999.wixsite.com/tech7</t>
   </si>
 </sst>
 </file>
@@ -892,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -935,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.265667254873739E+18</v>
+        <v>1.268191645259964E+18</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -944,25 +1048,25 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>1.264897037742506E+18</v>
+        <v>1.268118362112045E+18</v>
       </c>
       <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2">
+        <v>498</v>
+      </c>
+      <c r="I2">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2">
-        <v>33</v>
-      </c>
-      <c r="I2">
-        <v>13</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -970,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.265667246837424E+18</v>
+        <v>1.26819163739564E+18</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -979,25 +1083,25 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>9.550391882646036E+17</v>
+        <v>721036352</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>14975</v>
+        <v>3109</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1005,34 +1109,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.265667132043309E+18</v>
+        <v>1.268185258706506E+18</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>1.242050244285624E+18</v>
+        <v>1.134668128489656E+18</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="H4">
-        <v>4132</v>
+        <v>43765</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1040,34 +1144,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.265665079321588E+18</v>
+        <v>1.268184854425997E+18</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>1.190726565073523E+18</v>
+        <v>1.166373999343018E+18</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="H5">
-        <v>256851</v>
+        <v>492</v>
       </c>
       <c r="I5">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1075,34 +1179,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.265665055368118E+18</v>
+        <v>1.268182756435079E+18</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>1.260062769543434E+18</v>
+        <v>8.125552140247409E+17</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="H6">
-        <v>28781</v>
+        <v>189457</v>
       </c>
       <c r="I6">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1110,34 +1214,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.265665052025201E+18</v>
+        <v>1.268182738131182E+18</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>1.127829883013362E+18</v>
+        <v>248816081</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="H7">
-        <v>414224</v>
+        <v>21647</v>
       </c>
       <c r="I7">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1145,34 +1249,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.265665048648827E+18</v>
+        <v>1.268181933755859E+18</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>1.182866592138351E+18</v>
+        <v>1.222084242789634E+18</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="H8">
-        <v>9154</v>
+        <v>2642</v>
       </c>
       <c r="I8">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1180,34 +1284,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.265665047591821E+18</v>
+        <v>1.268179517388009E+18</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>8.855134345693553E+17</v>
+        <v>1.267176842856927E+18</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="H9">
-        <v>446657</v>
+        <v>5521</v>
       </c>
       <c r="I9">
-        <v>85</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1215,34 +1313,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.265665036200141E+18</v>
+        <v>1.268179444520255E+18</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>1.229091405152256E+18</v>
+        <v>1.190726565073523E+18</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H10">
-        <v>111873</v>
+        <v>267239</v>
       </c>
       <c r="I10">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1250,34 +1348,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.265664987986526E+18</v>
+        <v>1.268179354166706E+18</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>8.680847447639654E+17</v>
+        <v>1.243237017695052E+18</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="H11">
-        <v>40008</v>
+        <v>53003</v>
       </c>
       <c r="I11">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1285,34 +1383,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.265664048647025E+18</v>
+        <v>1.268175441002738E+18</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>1.260062769543434E+18</v>
+        <v>9.923172270797537E+17</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="H12">
-        <v>28781</v>
+        <v>13572</v>
       </c>
       <c r="I12">
-        <v>44</v>
+        <v>978</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1320,7 +1418,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.265664048076665E+18</v>
+        <v>1.268175437307408E+18</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -1329,25 +1427,25 @@
         <v>13</v>
       </c>
       <c r="E13">
-        <v>2358562603</v>
+        <v>548227643</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H13">
-        <v>394425</v>
+        <v>3452</v>
       </c>
       <c r="I13">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1355,7 +1453,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.265664040115855E+18</v>
+        <v>1.268175110604591E+18</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -1364,25 +1462,25 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>1.185239168768762E+18</v>
+        <v>117805461</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H14">
-        <v>3254</v>
+        <v>7634</v>
       </c>
       <c r="I14">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1390,34 +1488,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.26566368129314E+18</v>
+        <v>1.268175018866999E+18</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>1.134668128489656E+18</v>
+        <v>2930520904</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H15">
-        <v>43068</v>
+        <v>2945</v>
       </c>
       <c r="I15">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1425,34 +1523,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.26566350387404E+18</v>
+        <v>1.268174787123257E+18</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>210555477</v>
+        <v>3340145579</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H16">
-        <v>5994</v>
+        <v>3282</v>
       </c>
       <c r="I16">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1460,34 +1558,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.265663250726871E+18</v>
+        <v>1.268173088702837E+18</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>8.321728179783762E+17</v>
+        <v>3018841323</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H17">
-        <v>16423</v>
+        <v>43539</v>
       </c>
       <c r="I17">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1495,34 +1593,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.265662794134946E+18</v>
+        <v>1.268171456686383E+18</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>8.680847447639654E+17</v>
+        <v>1.267176842856927E+18</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="H18">
-        <v>40008</v>
+        <v>5521</v>
       </c>
       <c r="I18">
-        <v>57</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1530,34 +1622,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.265659849284579E+18</v>
+        <v>1.268171456581644E+18</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>7.371422024810168E+17</v>
+        <v>1.267176842856927E+18</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H19">
-        <v>1020413</v>
+        <v>5521</v>
       </c>
       <c r="I19">
-        <v>13</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1565,34 +1651,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.265659153483207E+18</v>
+        <v>1.26817144463213E+18</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>8.855134345693553E+17</v>
+        <v>1.131854274223366E+18</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="H20">
-        <v>446657</v>
+        <v>854150</v>
       </c>
       <c r="I20">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1600,7 +1686,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.265659145904108E+18</v>
+        <v>1.268167879888962E+18</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1609,25 +1695,25 @@
         <v>11</v>
       </c>
       <c r="E21">
-        <v>1.182866592138351E+18</v>
+        <v>8.771599743461335E+17</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="H21">
-        <v>9154</v>
+        <v>2872</v>
       </c>
       <c r="I21">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1635,34 +1721,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.265659100404343E+18</v>
+        <v>1.268166419235123E+18</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>1.018459979047625E+18</v>
+        <v>1.267176842856927E+18</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H22">
-        <v>145751</v>
+        <v>5521</v>
       </c>
       <c r="I22">
-        <v>13</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1670,34 +1750,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.265658582550237E+18</v>
+        <v>1.268166388788662E+18</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>1.190726565073523E+18</v>
+        <v>1.26613363338906E+18</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="H23">
-        <v>256851</v>
+        <v>16371</v>
       </c>
       <c r="I23">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1705,34 +1785,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.265658564292551E+18</v>
+        <v>1.268166366852526E+18</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E24">
-        <v>1.204128767251231E+18</v>
+        <v>2840980285</v>
       </c>
       <c r="F24" t="s">
         <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="H24">
-        <v>352714</v>
+        <v>7142</v>
       </c>
       <c r="I24">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1740,34 +1820,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.265658564284219E+18</v>
+        <v>1.268164231678984E+18</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E25">
-        <v>1.204128767251231E+18</v>
+        <v>9.104402060749701E+17</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="H25">
-        <v>352714</v>
+        <v>3016</v>
       </c>
       <c r="I25">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1775,34 +1855,34 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.265658482017042E+18</v>
+        <v>1.268162755468591E+18</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26">
-        <v>9.71620109197312E+17</v>
+        <v>503986471</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="H26">
-        <v>221904</v>
+        <v>8515</v>
       </c>
       <c r="I26">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1810,34 +1890,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.265658459401454E+18</v>
+        <v>1.268159654246351E+18</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27">
-        <v>1.141410142937911E+18</v>
+        <v>1.260861717258658E+18</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="H27">
-        <v>8377</v>
+        <v>185</v>
       </c>
       <c r="I27">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1845,34 +1925,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.265653616326697E+18</v>
+        <v>1.268156084587504E+18</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28">
-        <v>1.229091405152256E+18</v>
+        <v>1.23468726449777E+18</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="H28">
-        <v>111873</v>
+        <v>16335</v>
       </c>
       <c r="I28">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1880,34 +1960,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.265653604330996E+18</v>
+        <v>1.268154323751535E+18</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>1.260062769543434E+18</v>
+        <v>8.855134345693553E+17</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="H29">
-        <v>28781</v>
+        <v>458169</v>
       </c>
       <c r="I29">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1915,34 +1995,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.265653586773623E+18</v>
+        <v>1.26815429922748E+18</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30">
-        <v>1.182866592138351E+18</v>
+        <v>1.131854274223366E+18</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="H30">
-        <v>9154</v>
+        <v>854150</v>
       </c>
       <c r="I30">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1950,34 +2030,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.265653561544839E+18</v>
+        <v>1.268152396775129E+18</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>8.855134345693553E+17</v>
+        <v>1.257170815881228E+18</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="H31">
-        <v>446657</v>
+        <v>51890</v>
       </c>
       <c r="I31">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1985,34 +2065,34 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.26565354882356E+18</v>
+        <v>1.26815236450399E+18</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>1.127829883013362E+18</v>
+        <v>1.261355507203203E+18</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="H32">
-        <v>414224</v>
+        <v>12523</v>
       </c>
       <c r="I32">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2020,34 +2100,34 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.265653536131625E+18</v>
+        <v>1.268151290296558E+18</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>108944992</v>
+        <v>1.201368586398208E+18</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="H33">
-        <v>889</v>
+        <v>1695</v>
       </c>
       <c r="I33">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2055,34 +2135,34 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.265651541542711E+18</v>
+        <v>1.268150079996735E+18</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34">
-        <v>1.190726565073523E+18</v>
+        <v>1.204128767251231E+18</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="H34">
-        <v>256851</v>
+        <v>368786</v>
       </c>
       <c r="I34">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2090,7 +2170,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.265651482080293E+18</v>
+        <v>1.26814978996888E+18</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -2099,25 +2179,25 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>1.17498290572825E+18</v>
+        <v>1.201368586398208E+18</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="H35">
-        <v>9803</v>
+        <v>1695</v>
       </c>
       <c r="I35">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2125,34 +2205,34 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.265651377314947E+18</v>
+        <v>1.26814669576387E+18</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E36">
-        <v>8.680847447639654E+17</v>
+        <v>17433243</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="H36">
-        <v>40008</v>
+        <v>3539</v>
       </c>
       <c r="I36">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2160,34 +2240,34 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.265651014121722E+18</v>
+        <v>1.268145538110763E+18</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E37">
-        <v>1.204128767251231E+18</v>
+        <v>1.183615367937253E+18</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="H37">
-        <v>352714</v>
+        <v>234</v>
       </c>
       <c r="I37">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2195,34 +2275,34 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.265650798710542E+18</v>
+        <v>1.26814511326138E+18</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E38">
-        <v>1.242050244285624E+18</v>
+        <v>1.03246006099848E+18</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="H38">
-        <v>4132</v>
+        <v>2315</v>
       </c>
       <c r="I38">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2230,34 +2310,34 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.265650604598313E+18</v>
+        <v>1.268142019509211E+18</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39">
-        <v>145160621</v>
+        <v>1.264189368253759E+18</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="H39">
-        <v>20319</v>
+        <v>1099</v>
       </c>
       <c r="I39">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2265,7 +2345,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.265649857039122E+18</v>
+        <v>1.26814199315637E+18</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -2274,25 +2354,25 @@
         <v>21</v>
       </c>
       <c r="E40">
-        <v>1.141410142937911E+18</v>
+        <v>1.158109936146092E+18</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="H40">
-        <v>8377</v>
+        <v>4227</v>
       </c>
       <c r="I40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2300,34 +2380,34 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.265649633193349E+18</v>
+        <v>1.268140055849206E+18</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41">
-        <v>8.434189736014561E+17</v>
+        <v>9.408326384908943E+17</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="H41">
-        <v>3694</v>
+        <v>49575</v>
       </c>
       <c r="I41">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2335,34 +2415,34 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.265649558974947E+18</v>
+        <v>1.268139812084646E+18</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42">
-        <v>8.429561769584763E+17</v>
+        <v>31322694</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H42">
-        <v>580935</v>
+        <v>13021</v>
       </c>
       <c r="I42">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2370,34 +2450,34 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.265649364967535E+18</v>
+        <v>1.268139714500051E+18</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43">
-        <v>8.125552140247409E+17</v>
+        <v>297102985</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H43">
-        <v>188042</v>
+        <v>21702</v>
       </c>
       <c r="I43">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2405,7 +2485,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.265649364887835E+18</v>
+        <v>1.26813927514255E+18</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -2414,25 +2494,25 @@
         <v>22</v>
       </c>
       <c r="E44">
-        <v>8.125552140247409E+17</v>
+        <v>9.325385464973804E+17</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="H44">
-        <v>188042</v>
+        <v>2108</v>
       </c>
       <c r="I44">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2440,34 +2520,34 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.265649364875325E+18</v>
+        <v>1.268139137346896E+18</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E45">
-        <v>8.125552140247409E+17</v>
+        <v>1.190726565073523E+18</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H45">
-        <v>188042</v>
+        <v>267239</v>
       </c>
       <c r="I45">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2475,34 +2555,34 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.265649343463293E+18</v>
+        <v>1.268139107454198E+18</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>310897418</v>
+        <v>1.267740324144742E+18</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="H46">
-        <v>849760</v>
+        <v>6</v>
       </c>
       <c r="I46">
-        <v>17</v>
+        <v>978</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2510,34 +2590,34 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.265649340422459E+18</v>
+        <v>1.268138919436173E+18</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E47">
-        <v>1.152052858721919E+18</v>
+        <v>612587658</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G47" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="H47">
-        <v>123439</v>
+        <v>3726</v>
       </c>
       <c r="I47">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2545,34 +2625,34 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.26564912466323E+18</v>
+        <v>1.268138860778795E+18</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E48">
-        <v>1.135036162790384E+18</v>
+        <v>4863506745</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="H48">
-        <v>2491</v>
+        <v>7606</v>
       </c>
       <c r="I48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2580,34 +2660,34 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.265649098755056E+18</v>
+        <v>1.268137618518073E+18</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E49">
-        <v>7.676754093368975E+17</v>
+        <v>2697873409</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="H49">
-        <v>105863</v>
+        <v>1424</v>
       </c>
       <c r="I49">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2615,7 +2695,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.265648723855413E+18</v>
+        <v>1.268136923505275E+18</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -2624,25 +2704,25 @@
         <v>22</v>
       </c>
       <c r="E50">
-        <v>1.190726565073523E+18</v>
+        <v>1.006953374242111E+18</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="H50">
-        <v>256851</v>
+        <v>1353</v>
       </c>
       <c r="I50">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2650,34 +2730,34 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.265648678968201E+18</v>
+        <v>1.268136382637019E+18</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51">
-        <v>1.127829883013362E+18</v>
+        <v>9.630772808586977E+17</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H51">
-        <v>414224</v>
+        <v>2769</v>
       </c>
       <c r="I51">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2685,34 +2765,34 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.265648662274888E+18</v>
+        <v>1.268135466068398E+18</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E52">
-        <v>1.229091405152256E+18</v>
+        <v>9.854253002920223E+17</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="H52">
-        <v>111873</v>
+        <v>135907</v>
       </c>
       <c r="I52">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2720,34 +2800,34 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.265648651281596E+18</v>
+        <v>1.268135129152709E+18</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E53">
-        <v>1.182866592138351E+18</v>
+        <v>1.152052858721919E+18</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H53">
-        <v>9154</v>
+        <v>126506</v>
       </c>
       <c r="I53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2755,34 +2835,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.265648624064758E+18</v>
+        <v>1.268133418484859E+18</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E54">
-        <v>3100865684</v>
+        <v>1.267176842856927E+18</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H54">
-        <v>1009</v>
+        <v>5521</v>
       </c>
       <c r="I54">
-        <v>17</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2790,34 +2864,34 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.26564862120006E+18</v>
+        <v>1.268133345038184E+18</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E55">
-        <v>7.447763025913037E+17</v>
+        <v>1.190726565073523E+18</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H55">
-        <v>120520</v>
+        <v>267239</v>
       </c>
       <c r="I55">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2825,34 +2899,34 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.265648613687951E+18</v>
+        <v>1.268133284782805E+18</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E56">
-        <v>1.134668128489656E+18</v>
+        <v>1.26613363338906E+18</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="H56">
-        <v>43068</v>
+        <v>16371</v>
       </c>
       <c r="I56">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2860,34 +2934,34 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.265648509941842E+18</v>
+        <v>1.268133262880358E+18</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E57">
-        <v>8.456358345104794E+17</v>
+        <v>310897418</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H57">
-        <v>1327</v>
+        <v>856467</v>
       </c>
       <c r="I57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2895,7 +2969,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.265648490811711E+18</v>
+        <v>1.268133114443792E+18</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -2904,25 +2978,25 @@
         <v>24</v>
       </c>
       <c r="E58">
-        <v>8.44641768129876E+17</v>
+        <v>1.224163949957939E+18</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="H58">
-        <v>126</v>
+        <v>229712</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2930,34 +3004,34 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.265647760478482E+18</v>
+        <v>1.268133113600922E+18</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E59">
-        <v>1.244079407192584E+18</v>
+        <v>1.018459979047625E+18</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="H59">
-        <v>816</v>
+        <v>153589</v>
       </c>
       <c r="I59">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2965,34 +3039,34 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.265647541338755E+18</v>
+        <v>1.268133113248571E+18</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60">
-        <v>1.182866592138351E+18</v>
+        <v>1.250164632968298E+18</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="H60">
-        <v>9154</v>
+        <v>56666</v>
       </c>
       <c r="I60">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3000,34 +3074,34 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.265647516659393E+18</v>
+        <v>1.268133113240195E+18</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61">
-        <v>8.855134345693553E+17</v>
+        <v>9.71620109197312E+17</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="H61">
-        <v>446657</v>
+        <v>224094</v>
       </c>
       <c r="I61">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3035,34 +3109,34 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.265647503791227E+18</v>
+        <v>1.268133111205896E+18</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62">
-        <v>1.127829883013362E+18</v>
+        <v>1.142424032794407E+18</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="H62">
-        <v>414224</v>
+        <v>257660</v>
       </c>
       <c r="I62">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3070,34 +3144,34 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.265647486930235E+18</v>
+        <v>1.26813311111782E+18</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E63">
-        <v>1.229091405152256E+18</v>
+        <v>7.101237361757839E+17</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="H63">
-        <v>111873</v>
+        <v>1829643</v>
       </c>
       <c r="I63">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3105,34 +3179,34 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.265647470878458E+18</v>
+        <v>1.268133097456964E+18</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E64">
-        <v>1.190726565073523E+18</v>
+        <v>1.260062769543434E+18</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H64">
-        <v>256851</v>
+        <v>42632</v>
       </c>
       <c r="I64">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3140,34 +3214,34 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.265647425982775E+18</v>
+        <v>1.268133091400434E+18</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>8.78581678121173E+17</v>
+        <v>634954495</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="H65">
-        <v>11372</v>
+        <v>4321</v>
       </c>
       <c r="I65">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3175,34 +3249,34 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.265646344603083E+18</v>
+        <v>1.268130697816027E+18</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E66">
-        <v>8.456358345104794E+17</v>
+        <v>1.123530277287018E+18</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="H66">
-        <v>1327</v>
+        <v>13376</v>
       </c>
       <c r="I66">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3210,34 +3284,34 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.265646243960828E+18</v>
+        <v>1.268130444110959E+18</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E67">
-        <v>1.127829883013362E+18</v>
+        <v>8.855134345693553E+17</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G67" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="H67">
-        <v>414224</v>
+        <v>458169</v>
       </c>
       <c r="I67">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3245,34 +3319,34 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.265646227317821E+18</v>
+        <v>1.268130420287255E+18</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E68">
-        <v>1.229091405152256E+18</v>
+        <v>9.831777409657733E+17</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="H68">
-        <v>111873</v>
+        <v>77292</v>
       </c>
       <c r="I68">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3280,34 +3354,34 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.265646179871863E+18</v>
+        <v>1.268130354101174E+18</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E69">
-        <v>1.260062769543434E+18</v>
+        <v>1.131854274223366E+18</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="H69">
-        <v>28781</v>
+        <v>854150</v>
       </c>
       <c r="I69">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3315,34 +3389,28 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.26564617011148E+18</v>
+        <v>1.268128632377049E+18</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>1.261355507203203E+18</v>
+        <v>1.267176842856927E+18</v>
       </c>
       <c r="F70" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H70">
-        <v>7533</v>
+        <v>5521</v>
       </c>
       <c r="I70">
-        <v>50</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>155</v>
+        <v>978</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3350,34 +3418,34 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.265645772508328E+18</v>
+        <v>1.268128381557772E+18</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E71">
-        <v>1.242050244285624E+18</v>
+        <v>8.125552140247409E+17</v>
       </c>
       <c r="F71" t="s">
         <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H71">
-        <v>4132</v>
+        <v>189457</v>
       </c>
       <c r="I71">
-        <v>80</v>
+        <v>978</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3385,34 +3453,34 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.265645479519347E+18</v>
+        <v>1.268128381553566E+18</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E72">
-        <v>1.261355507203203E+18</v>
+        <v>8.125552140247409E+17</v>
       </c>
       <c r="F72" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H72">
-        <v>7533</v>
+        <v>189457</v>
       </c>
       <c r="I72">
-        <v>69</v>
+        <v>978</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3420,7 +3488,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.265644712506999E+18</v>
+        <v>1.268128360737186E+18</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
@@ -3429,25 +3497,25 @@
         <v>27</v>
       </c>
       <c r="E73">
-        <v>1.242050244285624E+18</v>
+        <v>2813035738</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="H73">
-        <v>4132</v>
+        <v>1646</v>
       </c>
       <c r="I73">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3455,34 +3523,34 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.265644603513995E+18</v>
+        <v>1.268128308572623E+18</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E74">
-        <v>1.143528514550927E+18</v>
+        <v>3290570816</v>
       </c>
       <c r="F74" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G74" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="H74">
-        <v>561013</v>
+        <v>23641</v>
       </c>
       <c r="I74">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3490,34 +3558,34 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.265644542255985E+18</v>
+        <v>1.268128137570914E+18</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E75">
-        <v>1.242050244285624E+18</v>
+        <v>1.229091405152256E+18</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="G75" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="H75">
-        <v>4132</v>
+        <v>125922</v>
       </c>
       <c r="I75">
-        <v>54</v>
+        <v>978</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3525,34 +3593,34 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.265644006513541E+18</v>
+        <v>1.268128134022472E+18</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E76">
-        <v>108248850</v>
+        <v>1.260062769543434E+18</v>
       </c>
       <c r="F76" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="H76">
-        <v>6477</v>
+        <v>42632</v>
       </c>
       <c r="I76">
-        <v>36</v>
+        <v>978</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3560,34 +3628,34 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.265643927018734E+18</v>
+        <v>1.268128082222776E+18</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>1.027458519430132E+18</v>
+        <v>1.127829883013362E+18</v>
       </c>
       <c r="F77" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="G77" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="H77">
-        <v>38132</v>
+        <v>427814</v>
       </c>
       <c r="I77">
-        <v>65</v>
+        <v>978</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3595,34 +3663,34 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.265643923487306E+18</v>
+        <v>1.268128064392901E+18</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E78">
-        <v>1.17498290572825E+18</v>
+        <v>7.101237361757839E+17</v>
       </c>
       <c r="F78" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G78" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="H78">
-        <v>9803</v>
+        <v>1829643</v>
       </c>
       <c r="I78">
-        <v>36</v>
+        <v>978</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3630,34 +3698,34 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.265643857640714E+18</v>
+        <v>1.268128057572733E+18</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>1.261355507203203E+18</v>
+        <v>1.190726565073523E+18</v>
       </c>
       <c r="F79" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H79">
-        <v>7533</v>
+        <v>267239</v>
       </c>
       <c r="I79">
-        <v>65</v>
+        <v>978</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3665,34 +3733,34 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.265643610344526E+18</v>
+        <v>1.268128056935399E+18</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E80">
-        <v>1.261355507203203E+18</v>
+        <v>1.131854274223366E+18</v>
       </c>
       <c r="F80" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G80" t="s">
         <v>115</v>
       </c>
       <c r="H80">
-        <v>7533</v>
+        <v>854150</v>
       </c>
       <c r="I80">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3700,34 +3768,34 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.265642589471961E+18</v>
+        <v>1.268128049461113E+18</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E81">
-        <v>1.242050244285624E+18</v>
+        <v>1.142424032794407E+18</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="H81">
-        <v>4132</v>
+        <v>257660</v>
       </c>
       <c r="I81">
-        <v>65</v>
+        <v>978</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3735,34 +3803,34 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.265642272340623E+18</v>
+        <v>1.268128005630702E+18</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E82">
-        <v>1.190726565073523E+18</v>
+        <v>2651324655</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="G82" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="H82">
-        <v>256851</v>
+        <v>24581</v>
       </c>
       <c r="I82">
-        <v>36</v>
+        <v>978</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3770,34 +3838,34 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.265642036650217E+18</v>
+        <v>1.268123674399306E+18</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E83">
-        <v>9.308715178603192E+17</v>
+        <v>711326345</v>
       </c>
       <c r="F83" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G83" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="H83">
-        <v>84052</v>
+        <v>652</v>
       </c>
       <c r="I83">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3805,34 +3873,34 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.265638909947437E+18</v>
+        <v>1.268123493574439E+18</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E84">
-        <v>1.190726565073523E+18</v>
+        <v>241867166</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="G84" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="H84">
-        <v>256851</v>
+        <v>2513</v>
       </c>
       <c r="I84">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3840,34 +3908,34 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.265638902154617E+18</v>
+        <v>1.268121157137502E+18</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E85">
-        <v>8.855134345693553E+17</v>
+        <v>7.26725974709121E+17</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="G85" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="H85">
-        <v>446657</v>
+        <v>72491</v>
       </c>
       <c r="I85">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3875,34 +3943,34 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.265638889831662E+18</v>
+        <v>1.268120253936005E+18</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E86">
-        <v>9.557094590656594E+17</v>
+        <v>7.245659308235612E+17</v>
       </c>
       <c r="F86" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="G86" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="H86">
-        <v>259348</v>
+        <v>6361</v>
       </c>
       <c r="I86">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3910,34 +3978,34 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.265638883779207E+18</v>
+        <v>1.268120014021853E+18</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E87">
-        <v>1.242050244285624E+18</v>
+        <v>80253571</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G87" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="H87">
-        <v>4132</v>
+        <v>65744</v>
       </c>
       <c r="I87">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3945,34 +4013,34 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.265637847907869E+18</v>
+        <v>1.268119401812935E+18</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E88">
-        <v>1.127829883013362E+18</v>
+        <v>1.26613363338906E+18</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G88" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="H88">
-        <v>414224</v>
+        <v>16371</v>
       </c>
       <c r="I88">
-        <v>948</v>
+        <v>24</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3980,34 +4048,34 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.26563784324386E+18</v>
+        <v>1.268119379721376E+18</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E89">
-        <v>1.182866592138351E+18</v>
+        <v>7.245659308235612E+17</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="H89">
-        <v>9154</v>
+        <v>6361</v>
       </c>
       <c r="I89">
-        <v>948</v>
+        <v>24</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4015,7 +4083,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.265637791850918E+18</v>
+        <v>1.268118686424072E+18</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -4024,25 +4092,25 @@
         <v>31</v>
       </c>
       <c r="E90">
-        <v>8.0605023409886E+17</v>
+        <v>1.257170815881228E+18</v>
       </c>
       <c r="F90" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H90">
-        <v>4325</v>
+        <v>51890</v>
       </c>
       <c r="I90">
-        <v>948</v>
+        <v>25</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4050,34 +4118,34 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.265632218203873E+18</v>
+        <v>1.268118664131166E+18</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E91">
-        <v>50889806</v>
+        <v>7.245659308235612E+17</v>
       </c>
       <c r="F91" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G91" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="H91">
-        <v>98709</v>
+        <v>6361</v>
       </c>
       <c r="I91">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4085,279 +4153,34 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.265630900907176E+18</v>
+        <v>1.268117634261942E+18</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E92">
-        <v>1.190726565073523E+18</v>
+        <v>1.26613363338906E+18</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G92" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="H92">
-        <v>256851</v>
+        <v>16371</v>
       </c>
       <c r="I92">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>1.265630715799986E+18</v>
-      </c>
-      <c r="C93" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E93">
-        <v>50889806</v>
-      </c>
-      <c r="F93" t="s">
-        <v>77</v>
-      </c>
-      <c r="G93" t="s">
-        <v>121</v>
-      </c>
-      <c r="H93">
-        <v>98709</v>
-      </c>
-      <c r="I93">
-        <v>65</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>1.26562979295241E+18</v>
-      </c>
-      <c r="C94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" t="s">
-        <v>28</v>
-      </c>
-      <c r="E94">
-        <v>50889806</v>
-      </c>
-      <c r="F94" t="s">
-        <v>77</v>
-      </c>
-      <c r="G94" t="s">
-        <v>121</v>
-      </c>
-      <c r="H94">
-        <v>98709</v>
-      </c>
-      <c r="I94">
-        <v>54</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>1.265629595832705E+18</v>
-      </c>
-      <c r="C95" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" t="s">
-        <v>27</v>
-      </c>
-      <c r="E95">
-        <v>1.190726565073523E+18</v>
-      </c>
-      <c r="F95" t="s">
-        <v>37</v>
-      </c>
-      <c r="G95" t="s">
-        <v>84</v>
-      </c>
-      <c r="H95">
-        <v>256851</v>
-      </c>
-      <c r="I95">
-        <v>69</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>1.265629547812336E+18</v>
-      </c>
-      <c r="C96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96">
-        <v>9.860334591341076E+17</v>
-      </c>
-      <c r="F96" t="s">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s">
-        <v>122</v>
-      </c>
-      <c r="H96">
-        <v>346</v>
-      </c>
-      <c r="I96">
-        <v>69</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>1.265629347408421E+18</v>
-      </c>
-      <c r="C97" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" t="s">
-        <v>26</v>
-      </c>
-      <c r="E97">
-        <v>9.860334591341076E+17</v>
-      </c>
-      <c r="F97" t="s">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s">
-        <v>122</v>
-      </c>
-      <c r="H97">
-        <v>346</v>
-      </c>
-      <c r="I97">
-        <v>80</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>1.26562563734936E+18</v>
-      </c>
-      <c r="C98" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" t="s">
-        <v>32</v>
-      </c>
-      <c r="E98">
-        <v>3524520857</v>
-      </c>
-      <c r="F98" t="s">
-        <v>79</v>
-      </c>
-      <c r="G98" t="s">
-        <v>123</v>
-      </c>
-      <c r="H98">
-        <v>665</v>
-      </c>
-      <c r="I98">
-        <v>288</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>1.265622833960346E+18</v>
-      </c>
-      <c r="C99" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" t="s">
-        <v>33</v>
-      </c>
-      <c r="E99">
-        <v>8514822</v>
-      </c>
-      <c r="F99" t="s">
-        <v>80</v>
-      </c>
-      <c r="G99" t="s">
-        <v>124</v>
-      </c>
-      <c r="H99">
-        <v>799</v>
-      </c>
-      <c r="I99">
-        <v>12</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4376,188 +4199,162 @@
     <hyperlink ref="K7" r:id="rId12"/>
     <hyperlink ref="J8" r:id="rId13"/>
     <hyperlink ref="K8" r:id="rId14"/>
-    <hyperlink ref="J9" r:id="rId15"/>
-    <hyperlink ref="K9" r:id="rId16"/>
-    <hyperlink ref="J10" r:id="rId17"/>
-    <hyperlink ref="K10" r:id="rId18"/>
-    <hyperlink ref="J11" r:id="rId19"/>
-    <hyperlink ref="K11" r:id="rId20"/>
-    <hyperlink ref="J12" r:id="rId21"/>
-    <hyperlink ref="K12" r:id="rId22"/>
-    <hyperlink ref="J13" r:id="rId23"/>
-    <hyperlink ref="K13" r:id="rId24"/>
-    <hyperlink ref="J14" r:id="rId25"/>
-    <hyperlink ref="K14" r:id="rId26"/>
-    <hyperlink ref="J15" r:id="rId27"/>
-    <hyperlink ref="K15" r:id="rId28"/>
-    <hyperlink ref="J16" r:id="rId29"/>
-    <hyperlink ref="K16" r:id="rId30"/>
-    <hyperlink ref="J17" r:id="rId31"/>
-    <hyperlink ref="K17" r:id="rId32"/>
-    <hyperlink ref="J18" r:id="rId33"/>
-    <hyperlink ref="K18" r:id="rId34"/>
-    <hyperlink ref="J19" r:id="rId35"/>
-    <hyperlink ref="K19" r:id="rId36"/>
-    <hyperlink ref="J20" r:id="rId37"/>
-    <hyperlink ref="K20" r:id="rId38"/>
-    <hyperlink ref="J21" r:id="rId39"/>
-    <hyperlink ref="K21" r:id="rId40"/>
-    <hyperlink ref="J22" r:id="rId41"/>
-    <hyperlink ref="K22" r:id="rId42"/>
-    <hyperlink ref="J23" r:id="rId43"/>
-    <hyperlink ref="K23" r:id="rId44"/>
-    <hyperlink ref="J24" r:id="rId45"/>
-    <hyperlink ref="K24" r:id="rId46"/>
-    <hyperlink ref="J25" r:id="rId47"/>
-    <hyperlink ref="K25" r:id="rId48"/>
-    <hyperlink ref="J26" r:id="rId49"/>
-    <hyperlink ref="K26" r:id="rId50"/>
-    <hyperlink ref="J27" r:id="rId51"/>
-    <hyperlink ref="K27" r:id="rId52"/>
-    <hyperlink ref="J28" r:id="rId53"/>
-    <hyperlink ref="K28" r:id="rId54"/>
-    <hyperlink ref="J29" r:id="rId55"/>
-    <hyperlink ref="K29" r:id="rId56"/>
-    <hyperlink ref="J30" r:id="rId57"/>
-    <hyperlink ref="K30" r:id="rId58"/>
-    <hyperlink ref="J31" r:id="rId59"/>
-    <hyperlink ref="K31" r:id="rId60"/>
-    <hyperlink ref="J32" r:id="rId61"/>
-    <hyperlink ref="K32" r:id="rId62"/>
-    <hyperlink ref="J33" r:id="rId63"/>
-    <hyperlink ref="K33" r:id="rId64"/>
-    <hyperlink ref="J34" r:id="rId65"/>
-    <hyperlink ref="K34" r:id="rId66"/>
-    <hyperlink ref="J35" r:id="rId67"/>
-    <hyperlink ref="K35" r:id="rId68"/>
-    <hyperlink ref="J36" r:id="rId69"/>
-    <hyperlink ref="K36" r:id="rId70"/>
-    <hyperlink ref="J37" r:id="rId71"/>
-    <hyperlink ref="K37" r:id="rId72"/>
-    <hyperlink ref="J38" r:id="rId73"/>
-    <hyperlink ref="K38" r:id="rId74"/>
-    <hyperlink ref="J39" r:id="rId75"/>
-    <hyperlink ref="K39" r:id="rId76"/>
-    <hyperlink ref="J40" r:id="rId77"/>
-    <hyperlink ref="K40" r:id="rId78"/>
-    <hyperlink ref="J41" r:id="rId79"/>
-    <hyperlink ref="K41" r:id="rId80"/>
-    <hyperlink ref="J42" r:id="rId81"/>
-    <hyperlink ref="K42" r:id="rId82"/>
-    <hyperlink ref="J43" r:id="rId83"/>
-    <hyperlink ref="K43" r:id="rId84"/>
-    <hyperlink ref="J44" r:id="rId85"/>
-    <hyperlink ref="K44" r:id="rId86"/>
-    <hyperlink ref="J45" r:id="rId87"/>
-    <hyperlink ref="K45" r:id="rId88"/>
-    <hyperlink ref="J46" r:id="rId89"/>
-    <hyperlink ref="K46" r:id="rId90"/>
-    <hyperlink ref="J47" r:id="rId91"/>
-    <hyperlink ref="K47" r:id="rId92"/>
-    <hyperlink ref="J48" r:id="rId93"/>
-    <hyperlink ref="K48" r:id="rId94"/>
-    <hyperlink ref="J49" r:id="rId95"/>
-    <hyperlink ref="K49" r:id="rId96"/>
-    <hyperlink ref="J50" r:id="rId97"/>
-    <hyperlink ref="K50" r:id="rId98"/>
-    <hyperlink ref="J51" r:id="rId99"/>
-    <hyperlink ref="K51" r:id="rId100"/>
-    <hyperlink ref="J52" r:id="rId101"/>
-    <hyperlink ref="K52" r:id="rId102"/>
-    <hyperlink ref="J53" r:id="rId103"/>
-    <hyperlink ref="K53" r:id="rId104"/>
-    <hyperlink ref="J54" r:id="rId105"/>
-    <hyperlink ref="K54" r:id="rId106"/>
-    <hyperlink ref="J55" r:id="rId107"/>
-    <hyperlink ref="K55" r:id="rId108"/>
-    <hyperlink ref="J56" r:id="rId109"/>
-    <hyperlink ref="K56" r:id="rId110"/>
-    <hyperlink ref="J57" r:id="rId111"/>
-    <hyperlink ref="K57" r:id="rId112"/>
-    <hyperlink ref="J58" r:id="rId113"/>
-    <hyperlink ref="K58" r:id="rId114"/>
-    <hyperlink ref="J59" r:id="rId115"/>
-    <hyperlink ref="K59" r:id="rId116"/>
-    <hyperlink ref="J60" r:id="rId117"/>
-    <hyperlink ref="K60" r:id="rId118"/>
-    <hyperlink ref="J61" r:id="rId119"/>
-    <hyperlink ref="K61" r:id="rId120"/>
-    <hyperlink ref="J62" r:id="rId121"/>
-    <hyperlink ref="K62" r:id="rId122"/>
-    <hyperlink ref="J63" r:id="rId123"/>
-    <hyperlink ref="K63" r:id="rId124"/>
-    <hyperlink ref="J64" r:id="rId125"/>
-    <hyperlink ref="K64" r:id="rId126"/>
-    <hyperlink ref="J65" r:id="rId127"/>
-    <hyperlink ref="K65" r:id="rId128"/>
-    <hyperlink ref="J66" r:id="rId129"/>
-    <hyperlink ref="K66" r:id="rId130"/>
-    <hyperlink ref="J67" r:id="rId131"/>
-    <hyperlink ref="K67" r:id="rId132"/>
-    <hyperlink ref="J68" r:id="rId133"/>
-    <hyperlink ref="K68" r:id="rId134"/>
-    <hyperlink ref="J69" r:id="rId135"/>
-    <hyperlink ref="K69" r:id="rId136"/>
-    <hyperlink ref="J70" r:id="rId137"/>
-    <hyperlink ref="K70" r:id="rId138"/>
-    <hyperlink ref="J71" r:id="rId139"/>
-    <hyperlink ref="K71" r:id="rId140"/>
-    <hyperlink ref="J72" r:id="rId141"/>
-    <hyperlink ref="K72" r:id="rId142"/>
-    <hyperlink ref="J73" r:id="rId143"/>
-    <hyperlink ref="K73" r:id="rId144"/>
-    <hyperlink ref="J74" r:id="rId145"/>
-    <hyperlink ref="K74" r:id="rId146"/>
-    <hyperlink ref="J75" r:id="rId147"/>
-    <hyperlink ref="K75" r:id="rId148"/>
-    <hyperlink ref="J76" r:id="rId149"/>
-    <hyperlink ref="K76" r:id="rId150"/>
-    <hyperlink ref="J77" r:id="rId151"/>
-    <hyperlink ref="K77" r:id="rId152"/>
-    <hyperlink ref="J78" r:id="rId153"/>
-    <hyperlink ref="K78" r:id="rId154"/>
-    <hyperlink ref="J79" r:id="rId155"/>
-    <hyperlink ref="K79" r:id="rId156"/>
-    <hyperlink ref="J80" r:id="rId157"/>
-    <hyperlink ref="K80" r:id="rId158"/>
-    <hyperlink ref="J81" r:id="rId159"/>
-    <hyperlink ref="K81" r:id="rId160"/>
-    <hyperlink ref="J82" r:id="rId161"/>
-    <hyperlink ref="K82" r:id="rId162"/>
-    <hyperlink ref="J83" r:id="rId163"/>
-    <hyperlink ref="K83" r:id="rId164"/>
-    <hyperlink ref="J84" r:id="rId165"/>
-    <hyperlink ref="K84" r:id="rId166"/>
-    <hyperlink ref="J85" r:id="rId167"/>
-    <hyperlink ref="K85" r:id="rId168"/>
-    <hyperlink ref="J86" r:id="rId169"/>
-    <hyperlink ref="K86" r:id="rId170"/>
-    <hyperlink ref="J87" r:id="rId171"/>
-    <hyperlink ref="K87" r:id="rId172"/>
-    <hyperlink ref="J88" r:id="rId173"/>
-    <hyperlink ref="K88" r:id="rId174"/>
-    <hyperlink ref="J89" r:id="rId175"/>
-    <hyperlink ref="K89" r:id="rId176"/>
-    <hyperlink ref="J90" r:id="rId177"/>
-    <hyperlink ref="K90" r:id="rId178"/>
-    <hyperlink ref="J91" r:id="rId179"/>
-    <hyperlink ref="K91" r:id="rId180"/>
-    <hyperlink ref="J92" r:id="rId181"/>
-    <hyperlink ref="K92" r:id="rId182"/>
-    <hyperlink ref="J93" r:id="rId183"/>
-    <hyperlink ref="K93" r:id="rId184"/>
-    <hyperlink ref="J94" r:id="rId185"/>
-    <hyperlink ref="K94" r:id="rId186"/>
-    <hyperlink ref="J95" r:id="rId187"/>
-    <hyperlink ref="K95" r:id="rId188"/>
-    <hyperlink ref="J96" r:id="rId189"/>
-    <hyperlink ref="K96" r:id="rId190"/>
-    <hyperlink ref="J97" r:id="rId191"/>
-    <hyperlink ref="K97" r:id="rId192"/>
-    <hyperlink ref="J98" r:id="rId193"/>
-    <hyperlink ref="K98" r:id="rId194"/>
-    <hyperlink ref="J99" r:id="rId195"/>
-    <hyperlink ref="K99" r:id="rId196"/>
+    <hyperlink ref="J10" r:id="rId15"/>
+    <hyperlink ref="K10" r:id="rId16"/>
+    <hyperlink ref="J11" r:id="rId17"/>
+    <hyperlink ref="K11" r:id="rId18"/>
+    <hyperlink ref="J12" r:id="rId19"/>
+    <hyperlink ref="K12" r:id="rId20"/>
+    <hyperlink ref="J13" r:id="rId21"/>
+    <hyperlink ref="K13" r:id="rId22"/>
+    <hyperlink ref="J14" r:id="rId23"/>
+    <hyperlink ref="K14" r:id="rId24"/>
+    <hyperlink ref="J15" r:id="rId25"/>
+    <hyperlink ref="K15" r:id="rId26"/>
+    <hyperlink ref="J16" r:id="rId27"/>
+    <hyperlink ref="K16" r:id="rId28"/>
+    <hyperlink ref="J17" r:id="rId29"/>
+    <hyperlink ref="K17" r:id="rId30"/>
+    <hyperlink ref="J20" r:id="rId31"/>
+    <hyperlink ref="K20" r:id="rId32"/>
+    <hyperlink ref="J21" r:id="rId33"/>
+    <hyperlink ref="K21" r:id="rId34"/>
+    <hyperlink ref="J23" r:id="rId35"/>
+    <hyperlink ref="K23" r:id="rId36"/>
+    <hyperlink ref="J24" r:id="rId37"/>
+    <hyperlink ref="K24" r:id="rId38"/>
+    <hyperlink ref="J25" r:id="rId39"/>
+    <hyperlink ref="K25" r:id="rId40"/>
+    <hyperlink ref="J26" r:id="rId41"/>
+    <hyperlink ref="K26" r:id="rId42"/>
+    <hyperlink ref="J27" r:id="rId43"/>
+    <hyperlink ref="K27" r:id="rId44"/>
+    <hyperlink ref="J28" r:id="rId45"/>
+    <hyperlink ref="K28" r:id="rId46"/>
+    <hyperlink ref="J29" r:id="rId47"/>
+    <hyperlink ref="K29" r:id="rId48"/>
+    <hyperlink ref="J30" r:id="rId49"/>
+    <hyperlink ref="K30" r:id="rId50"/>
+    <hyperlink ref="J31" r:id="rId51"/>
+    <hyperlink ref="K31" r:id="rId52"/>
+    <hyperlink ref="J32" r:id="rId53"/>
+    <hyperlink ref="K32" r:id="rId54"/>
+    <hyperlink ref="J33" r:id="rId55"/>
+    <hyperlink ref="K33" r:id="rId56"/>
+    <hyperlink ref="J34" r:id="rId57"/>
+    <hyperlink ref="K34" r:id="rId58"/>
+    <hyperlink ref="J35" r:id="rId59"/>
+    <hyperlink ref="K35" r:id="rId60"/>
+    <hyperlink ref="J36" r:id="rId61"/>
+    <hyperlink ref="K36" r:id="rId62"/>
+    <hyperlink ref="J37" r:id="rId63"/>
+    <hyperlink ref="K37" r:id="rId64"/>
+    <hyperlink ref="J38" r:id="rId65"/>
+    <hyperlink ref="K38" r:id="rId66"/>
+    <hyperlink ref="J39" r:id="rId67"/>
+    <hyperlink ref="K39" r:id="rId68"/>
+    <hyperlink ref="J40" r:id="rId69"/>
+    <hyperlink ref="K40" r:id="rId70"/>
+    <hyperlink ref="J41" r:id="rId71"/>
+    <hyperlink ref="K41" r:id="rId72"/>
+    <hyperlink ref="J42" r:id="rId73"/>
+    <hyperlink ref="K42" r:id="rId74"/>
+    <hyperlink ref="J43" r:id="rId75"/>
+    <hyperlink ref="K43" r:id="rId76"/>
+    <hyperlink ref="J44" r:id="rId77"/>
+    <hyperlink ref="K44" r:id="rId78"/>
+    <hyperlink ref="J45" r:id="rId79"/>
+    <hyperlink ref="K45" r:id="rId80"/>
+    <hyperlink ref="J46" r:id="rId81"/>
+    <hyperlink ref="K46" r:id="rId82"/>
+    <hyperlink ref="J47" r:id="rId83"/>
+    <hyperlink ref="K47" r:id="rId84"/>
+    <hyperlink ref="J48" r:id="rId85"/>
+    <hyperlink ref="K48" r:id="rId86"/>
+    <hyperlink ref="J49" r:id="rId87"/>
+    <hyperlink ref="K49" r:id="rId88"/>
+    <hyperlink ref="J50" r:id="rId89"/>
+    <hyperlink ref="K50" r:id="rId90"/>
+    <hyperlink ref="J51" r:id="rId91"/>
+    <hyperlink ref="K51" r:id="rId92"/>
+    <hyperlink ref="J52" r:id="rId93"/>
+    <hyperlink ref="K52" r:id="rId94"/>
+    <hyperlink ref="J53" r:id="rId95"/>
+    <hyperlink ref="K53" r:id="rId96"/>
+    <hyperlink ref="J55" r:id="rId97"/>
+    <hyperlink ref="K55" r:id="rId98"/>
+    <hyperlink ref="J56" r:id="rId99"/>
+    <hyperlink ref="K56" r:id="rId100"/>
+    <hyperlink ref="J57" r:id="rId101"/>
+    <hyperlink ref="K57" r:id="rId102"/>
+    <hyperlink ref="J58" r:id="rId103"/>
+    <hyperlink ref="K58" r:id="rId104"/>
+    <hyperlink ref="J59" r:id="rId105"/>
+    <hyperlink ref="K59" r:id="rId106"/>
+    <hyperlink ref="J60" r:id="rId107"/>
+    <hyperlink ref="K60" r:id="rId108"/>
+    <hyperlink ref="J61" r:id="rId109"/>
+    <hyperlink ref="K61" r:id="rId110"/>
+    <hyperlink ref="J62" r:id="rId111"/>
+    <hyperlink ref="K62" r:id="rId112"/>
+    <hyperlink ref="J63" r:id="rId113"/>
+    <hyperlink ref="K63" r:id="rId114"/>
+    <hyperlink ref="J64" r:id="rId115"/>
+    <hyperlink ref="K64" r:id="rId116"/>
+    <hyperlink ref="J65" r:id="rId117"/>
+    <hyperlink ref="K65" r:id="rId118"/>
+    <hyperlink ref="J66" r:id="rId119"/>
+    <hyperlink ref="K66" r:id="rId120"/>
+    <hyperlink ref="J67" r:id="rId121"/>
+    <hyperlink ref="K67" r:id="rId122"/>
+    <hyperlink ref="J68" r:id="rId123"/>
+    <hyperlink ref="K68" r:id="rId124"/>
+    <hyperlink ref="J69" r:id="rId125"/>
+    <hyperlink ref="K69" r:id="rId126"/>
+    <hyperlink ref="J71" r:id="rId127"/>
+    <hyperlink ref="K71" r:id="rId128"/>
+    <hyperlink ref="J72" r:id="rId129"/>
+    <hyperlink ref="K72" r:id="rId130"/>
+    <hyperlink ref="J73" r:id="rId131"/>
+    <hyperlink ref="K73" r:id="rId132"/>
+    <hyperlink ref="J74" r:id="rId133"/>
+    <hyperlink ref="K74" r:id="rId134"/>
+    <hyperlink ref="J75" r:id="rId135"/>
+    <hyperlink ref="K75" r:id="rId136"/>
+    <hyperlink ref="J76" r:id="rId137"/>
+    <hyperlink ref="K76" r:id="rId138"/>
+    <hyperlink ref="J77" r:id="rId139"/>
+    <hyperlink ref="K77" r:id="rId140"/>
+    <hyperlink ref="J78" r:id="rId141"/>
+    <hyperlink ref="K78" r:id="rId142"/>
+    <hyperlink ref="J79" r:id="rId143"/>
+    <hyperlink ref="K79" r:id="rId144"/>
+    <hyperlink ref="J80" r:id="rId145"/>
+    <hyperlink ref="K80" r:id="rId146"/>
+    <hyperlink ref="J81" r:id="rId147"/>
+    <hyperlink ref="K81" r:id="rId148"/>
+    <hyperlink ref="J82" r:id="rId149"/>
+    <hyperlink ref="K82" r:id="rId150"/>
+    <hyperlink ref="J83" r:id="rId151"/>
+    <hyperlink ref="K83" r:id="rId152"/>
+    <hyperlink ref="J84" r:id="rId153"/>
+    <hyperlink ref="K84" r:id="rId154"/>
+    <hyperlink ref="J85" r:id="rId155"/>
+    <hyperlink ref="K85" r:id="rId156"/>
+    <hyperlink ref="J86" r:id="rId157"/>
+    <hyperlink ref="K86" r:id="rId158"/>
+    <hyperlink ref="J87" r:id="rId159"/>
+    <hyperlink ref="K87" r:id="rId160"/>
+    <hyperlink ref="J88" r:id="rId161"/>
+    <hyperlink ref="K88" r:id="rId162"/>
+    <hyperlink ref="J89" r:id="rId163"/>
+    <hyperlink ref="K89" r:id="rId164"/>
+    <hyperlink ref="J90" r:id="rId165"/>
+    <hyperlink ref="K90" r:id="rId166"/>
+    <hyperlink ref="J91" r:id="rId167"/>
+    <hyperlink ref="K91" r:id="rId168"/>
+    <hyperlink ref="J92" r:id="rId169"/>
+    <hyperlink ref="K92" r:id="rId170"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
